--- a/short_achab_catch.xlsx
+++ b/short_achab_catch.xlsx
@@ -17,18 +17,16 @@
     <sheet name="HTZ_compo" sheetId="8" r:id="rId8"/>
     <sheet name="SNVmumVsCNVdad" sheetId="9" r:id="rId9"/>
     <sheet name="SNVdadVsCNVmum" sheetId="10" r:id="rId10"/>
-    <sheet name="Candidats" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL_0.01'!$A$1:$Z$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">AR!$A$1:$Z$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Candidats!$A$1:$Z$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DENOVO!$A$1:$Z$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">HTZ_compo!$A$1:$Z$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OMIM_DOM!$A$1:$Z$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OMIM_REC!$A$1:$Z$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SNVdadVsCNVmum!$A$1:$Z$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SNVmumVsCNVdad!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL_0.01'!$A$1:$AZ$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">AR!$A$1:$AZ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DENOVO!$A$1:$AZ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">HTZ_compo!$A$1:$AZ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OMIM_DOM!$A$1:$AZ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OMIM_REC!$A$1:$AZ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SNVdadVsCNVmum!$A$1:$AZ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SNVmumVsCNVdad!$A$1:$AZ$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -92,6 +90,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_017891:exon2:UTR5
+ NM_001330306:exon3:UTR5
+ID:
+ rs143221733
+Func.refGene:
+ splicing
+ intronic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D2" authorId="0">
       <text>
         <r>
@@ -163,6 +186,7 @@
 gnomAD_exome_FIN	= 0.0091
 gnomAD_exome_NFE	= 0.0083
 gnomAD_exome_OTH	= 0.0049
+gnomAD_exome_SAS	= 0.0022
 </t>
         </r>
       </text>
@@ -189,26 +213,6 @@
       </text>
     </comment>
     <comment ref="K2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_017891:exon2:UTR5
- NM_001330306:exon3:UTR5
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,6 +266,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PLA2G2F:NM_022819:exon3:c.G262A:p.G88S
+ PLA2G2F:NM_022819:exon3:c.262G&gt;A:p.G88S
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D3" authorId="0">
       <text>
         <r>
@@ -337,6 +365,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 8.982e-06
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -380,26 +409,6 @@
       </text>
     </comment>
     <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PLA2G2F:NM_022819:exon3:c.G262A:p.G88S
- PLA2G2F:NM_022819:exon3:c.262G&gt;A:p.G88S
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,6 +462,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ H6PD:NM_001282587:exon5:c.C1802T:p.S601L
+ H6PD:NM_004285:exon5:c.C1769T:p.S590L
+ H6PD:NM_001282587:exon5:c.1802C&gt;T:p.S601L
+ H6PD:NM_004285:exon5:c.1769C&gt;T:p.S590L
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
@@ -528,6 +563,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 9.54e-06
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -573,28 +609,6 @@
       </text>
     </comment>
     <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- H6PD:NM_001282587:exon5:c.C1802T:p.S601L
- H6PD:NM_004285:exon5:c.C1769T:p.S590L
- H6PD:NM_001282587:exon5:c.1802C&gt;T:p.S601L
- H6PD:NM_004285:exon5:c.1769C&gt;T:p.S590L
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,6 +662,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ EPHA8:NM_020526:exon10:c.A1892G:p.E631G
+ EPHA8:NM_020526:exon10:c.1892A&gt;G:p.E631G
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
@@ -692,7 +730,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -713,7 +751,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
 gnomAD_exome_AFR	= .
 gnomAD_exome_AMR	= .
 gnomAD_exome_ASJ	= .
@@ -721,6 +759,7 @@
 gnomAD_exome_FIN	= .
 gnomAD_exome_NFE	= .
 gnomAD_exome_OTH	= .
+gnomAD_exome_SAS	= .
 </t>
         </r>
       </text>
@@ -764,26 +803,6 @@
       </text>
     </comment>
     <comment ref="K5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- EPHA8:NM_020526:exon10:c.A1892G:p.E631G
- EPHA8:NM_020526:exon10:c.1892A&gt;G:p.E631G
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -840,6 +859,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ AKR7A2:NM_001320979:exon2:c.C358T:p.R120W
+ AKR7A2:NM_003689:exon2:c.C358T:p.R120W
+ AKR7A2:NM_001320979:exon2:c.358C&gt;T:p.R120W
+ AKR7A2:NM_003689:exon2:c.358C&gt;T:p.R120W
+GeneDetail.refGene:
+ .
+ID:
+ rs146046785
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D6" authorId="0">
       <text>
         <r>
@@ -915,6 +960,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 8.966e-06
 gnomAD_exome_OTH	= 0.0002
+gnomAD_exome_SAS	= 3.249e-05
 </t>
         </r>
       </text>
@@ -956,28 +1002,6 @@
       </text>
     </comment>
     <comment ref="K6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- AKR7A2:NM_001320979:exon2:c.C358T:p.R120W
- AKR7A2:NM_003689:exon2:c.C358T:p.R120W
- AKR7A2:NM_001320979:exon2:c.358C&gt;T:p.R120W
- AKR7A2:NM_003689:exon2:c.358C&gt;T:p.R120W
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1031,6 +1055,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ MFN2:NM_001127660:exon8:c.G892A:p.G298R
+ MFN2:NM_014874:exon9:c.G892A:p.G298R
+ MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
+ MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
+GeneDetail.refGene:
+ .
+ID:
+ rs41278630
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
@@ -1108,6 +1158,7 @@
 gnomAD_exome_FIN	= 0.0010
 gnomAD_exome_NFE	= 0.0034
 gnomAD_exome_OTH	= 0.0024
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -1146,37 +1197,15 @@
 Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
 PP3	= 1
 Multiple lines of computational evidence support a deleterious effect on the gene or gene product (conservation, evolutionary, splicing impact, etc.) sfit for conservation, GERP++_RS for evolutionary, splicing impact from dbNSFP
+PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 BP6	= 1
 Reputable source recently reports variant as benign, but the evidence is not available to the laboratory to perform an independent evaluation; Check the ClinVar column to see whether this is "benign".
-PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- MFN2:NM_001127660:exon8:c.G892A:p.G298R
- MFN2:NM_014874:exon9:c.G892A:p.G298R
- MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
- MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1230,124 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">LOEUF = 0.713
-LOEUF_decile = 3.0
-oe_lof = 0.39502
-oe_lof_lower = 0.231
-Missense_upper = 0.902
-Function Description:
-FUNCTION:_May_constitute_a_control_point_in_macrophage_inflammatory_response,_promoting_LPS_induced_TNF_production._{ECO:0000269|PubMed:20644716}.
-Tissue specificity:
-TISSUE_SPECIFICITY:_Expressed_in_different_endometrial_adenocarcinoma_cell_lines_and_various_other_cell_lines_apart_from_the_prostate_cell_line_LNCaP_and_the_ovarian_cancer_cell_line_BG1._{ECO:0000269|PubMed:9563507}.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Disease_description.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0066
-gnomAD_genome_AFR	= 0.0015
-gnomAD_genome_AMR	= 0.0024
-gnomAD_genome_ASJ	= 0.0166
-gnomAD_genome_EAS	= 0
-gnomAD_genome_FIN	= 0.0089
-gnomAD_genome_NFE	= 0.0100
-gnomAD_genome_OTH	= 0.0041
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0082
-gnomAD_exome_AFR	= 0.0018
-gnomAD_exome_AMR	= 0.0055
-gnomAD_exome_ASJ	= 0.0140
-gnomAD_exome_EAS	= 0
-gnomAD_exome_FIN	= 0.0093
-gnomAD_exome_NFE	= 0.0122
-gnomAD_exome_OTH	= 0.0086
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLNREVSTAT:
- criteria_provided,_single_submitter
-CLNDN:
- not_provided
-CLNALLELEID:
- 696674
-CLNDISDB:
- MedGen:CN517202
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PM1	= 1
-Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
-BS1	= 1
-Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1369,11 +1281,133 @@
  THEMIS2:NM_004848:exon3:c.331T&gt;C:p.F111L
 GeneDetail.refGene:
  .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L8" authorId="0">
+ID:
+ rs41284294
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.713
+LOEUF_decile = 3.0
+oe_lof = 0.39502
+oe_lof_lower = 0.231
+Missense_upper = 0.902
+Function Description:
+FUNCTION:_May_constitute_a_control_point_in_macrophage_inflammatory_response,_promoting_LPS_induced_TNF_production._{ECO:0000269|PubMed:20644716}.
+Tissue specificity:
+TISSUE_SPECIFICITY:_Expressed_in_different_endometrial_adenocarcinoma_cell_lines_and_various_other_cell_lines_apart_from_the_prostate_cell_line_LNCaP_and_the_ovarian_cancer_cell_line_BG1._{ECO:0000269|PubMed:9563507}.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0066
+gnomAD_genome_AFR	= 0.0015
+gnomAD_genome_AMR	= 0.0024
+gnomAD_genome_ASJ	= 0.0166
+gnomAD_genome_EAS	= 0
+gnomAD_genome_FIN	= 0.0089
+gnomAD_genome_NFE	= 0.0100
+gnomAD_genome_OTH	= 0.0041
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0082
+gnomAD_exome_AFR	= 0.0018
+gnomAD_exome_AMR	= 0.0055
+gnomAD_exome_ASJ	= 0.0140
+gnomAD_exome_EAS	= 0
+gnomAD_exome_FIN	= 0.0093
+gnomAD_exome_NFE	= 0.0122
+gnomAD_exome_OTH	= 0.0086
+gnomAD_exome_SAS	= 0.0018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ criteria_provided,_single_submitter
+CLNDN:
+ not_provided
+CLNALLELEID:
+ 696674
+CLNDISDB:
+ MedGen:CN517202
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PM1	= 1
+Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
+BS1	= 1
+Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1427,6 +1461,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ KIAA2013:NM_138346:exon2:c.G1228A:p.E410K
+ KIAA2013:NM_138346:exon2:c.1228G&gt;A:p.E410K
+GeneDetail.refGene:
+ .
+ID:
+ rs145773140
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0">
       <text>
         <r>
@@ -1498,6 +1556,7 @@
 gnomAD_exome_FIN	= 0.0003
 gnomAD_exome_NFE	= 0.0034
 gnomAD_exome_OTH	= 0.0029
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -1524,26 +1583,6 @@
       </text>
     </comment>
     <comment ref="K9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- KIAA2013:NM_138346:exon2:c.G1228A:p.E410K
- KIAA2013:NM_138346:exon2:c.1228G&gt;A:p.E410K
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1597,122 +1636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">LOEUF = 0.381
-LOEUF_decile = 1.0
-oe_lof = 0.21123000000000003
-oe_lof_lower = 0.123
-Missense_upper = 0.773
-Function Description:
-FUNCTION:_Component_of_the_cornified_envelope_of_keratinocytes._May_be_involved_in_the_interplay_between_adherens_junctions_and_desmosomes._The_function_in_the_nucleus_is_not_known._{ECO:0000269|PubMed:15337775}.
-Tissue specificity:
-TISSUE_SPECIFICITY:_Isoform_2,_isoform_3_and_isoform_4_are_expressed_in_several_cell_lines_including_keratinocytes_and_bladder_and_epidermoid_carcinoma_(at_protein_level)._Isoform_2,_isoform_3_and_isoform_4_are_expressed_in_hair_follicle_and_interfollicular_epidermis_(at_protein_level)._{ECO:0000269|PubMed:15337775}.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Disease_description.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
-gnomAD_genome_AFR	= .
-gnomAD_genome_AMR	= .
-gnomAD_genome_ASJ	= .
-gnomAD_genome_EAS	= .
-gnomAD_genome_FIN	= .
-gnomAD_genome_NFE	= .
-gnomAD_genome_OTH	= .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
-gnomAD_exome_AFR	= .
-gnomAD_exome_AMR	= .
-gnomAD_exome_ASJ	= .
-gnomAD_exome_EAS	= .
-gnomAD_exome_FIN	= .
-gnomAD_exome_NFE	= .
-gnomAD_exome_OTH	= .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLNREVSTAT:
- .
-CLNDN:
- .
-CLNALLELEID:
- .
-CLNDISDB:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1736,11 +1660,131 @@
  KAZN:NM_201628:exon6:c.955G&gt;C:p.V319L
 GeneDetail.refGene:
  .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L10" authorId="0">
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.381
+LOEUF_decile = 1.0
+oe_lof = 0.21123000000000003
+oe_lof_lower = 0.123
+Missense_upper = 0.773
+Function Description:
+FUNCTION:_Component_of_the_cornified_envelope_of_keratinocytes._May_be_involved_in_the_interplay_between_adherens_junctions_and_desmosomes._The_function_in_the_nucleus_is_not_known._{ECO:0000269|PubMed:15337775}.
+Tissue specificity:
+TISSUE_SPECIFICITY:_Isoform_2,_isoform_3_and_isoform_4_are_expressed_in_several_cell_lines_including_keratinocytes_and_bladder_and_epidermoid_carcinoma_(at_protein_level)._Isoform_2,_isoform_3_and_isoform_4_are_expressed_in_hair_follicle_and_interfollicular_epidermis_(at_protein_level)._{ECO:0000269|PubMed:15337775}.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
+gnomAD_genome_AFR	= .
+gnomAD_genome_AMR	= .
+gnomAD_genome_ASJ	= .
+gnomAD_genome_EAS	= .
+gnomAD_genome_FIN	= .
+gnomAD_genome_NFE	= .
+gnomAD_genome_OTH	= .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
+gnomAD_exome_AFR	= .
+gnomAD_exome_AMR	= .
+gnomAD_exome_ASJ	= .
+gnomAD_exome_EAS	= .
+gnomAD_exome_FIN	= .
+gnomAD_exome_NFE	= .
+gnomAD_exome_OTH	= .
+gnomAD_exome_SAS	= .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ .
+CLNDN:
+ .
+CLNALLELEID:
+ .
+CLNDISDB:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1794,6 +1838,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ CRYBG2:NM_001039775:exon18:c.G4669C:p.V1557L
+ CRYBG2:NM_001039775:exon18:c.4669G&gt;C:p.V1557L
+GeneDetail.refGene:
+ .
+ID:
+ rs144282899
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
@@ -1847,6 +1915,7 @@
 gnomAD_exome_FIN	= 0.0014
 gnomAD_exome_NFE	= 0.0017
 gnomAD_exome_OTH	= 0.0004
+gnomAD_exome_SAS	= 0.0011
 </t>
         </r>
       </text>
@@ -1888,26 +1957,6 @@
       </text>
     </comment>
     <comment ref="K11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- CRYBG2:NM_001039775:exon18:c.G4669C:p.V1557L
- CRYBG2:NM_001039775:exon18:c.4669G&gt;C:p.V1557L
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,6 +2010,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SPEN:NM_015001:exon11:c.G2351A:p.R784H
+ SPEN:NM_015001:exon11:c.2351G&gt;A:p.R784H
+GeneDetail.refGene:
+ .
+ID:
+ rs181758065
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D12" authorId="0">
       <text>
         <r>
@@ -2036,6 +2109,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 0.0003
 gnomAD_exome_OTH	= 0.0005
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -2077,26 +2151,6 @@
       </text>
     </comment>
     <comment ref="K12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- SPEN:NM_015001:exon11:c.G2351A:p.R784H
- SPEN:NM_015001:exon11:c.2351G&gt;A:p.R784H
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2150,6 +2204,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_182623:exon6:r.spl
+ID:
+ .
+Func.refGene:
+ splicing
+ intronic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D13" authorId="0">
       <text>
         <r>
@@ -2221,6 +2299,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 0
 gnomAD_exome_OTH	= 0.0002
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -2247,25 +2326,6 @@
       </text>
     </comment>
     <comment ref="K13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_182623:exon6:r.spl
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2319,6 +2379,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_001271733:exon1:c.67+7-&gt;A
+ID:
+ .
+Func.refGene:
+ splicing
+ intronic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E14" authorId="0">
       <text>
         <r>
@@ -2372,6 +2456,7 @@
 gnomAD_exome_FIN	= 0.2581
 gnomAD_exome_NFE	= 0.1984
 gnomAD_exome_OTH	= 0.2234
+gnomAD_exome_SAS	= 0.1610
 </t>
         </r>
       </text>
@@ -2398,25 +2483,6 @@
       </text>
     </comment>
     <comment ref="K14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_001271733:exon1:c.67+7-&gt;A
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2470,6 +2536,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ GPR153:NM_207370:exon5:c.G1102C:p.G368R
+ GPR153:NM_207370:exon5:c.1102G&gt;C:p.G368R
+GeneDetail.refGene:
+ .
+ID:
+ rs142015102
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D15" authorId="0">
       <text>
         <r>
@@ -2543,6 +2633,7 @@
 gnomAD_exome_FIN	= 0.0110
 gnomAD_exome_NFE	= 0.0094
 gnomAD_exome_OTH	= 0.0081
+gnomAD_exome_SAS	= 0.0003
 </t>
         </r>
       </text>
@@ -2586,26 +2677,6 @@
       </text>
     </comment>
     <comment ref="K15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- GPR153:NM_207370:exon5:c.G1102C:p.G368R
- GPR153:NM_207370:exon5:c.1102G&gt;C:p.G368R
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2659,6 +2730,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SPEN:NM_015001:exon11:c.G3064A:p.V1022M
+ SPEN:NM_015001:exon11:c.3064G&gt;A:p.V1022M
+GeneDetail.refGene:
+ .
+ID:
+ rs115566585
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D16" authorId="0">
       <text>
         <r>
@@ -2734,6 +2829,7 @@
 gnomAD_exome_FIN	= 8.969e-05
 gnomAD_exome_NFE	= 0.0030
 gnomAD_exome_OTH	= 0.0042
+gnomAD_exome_SAS	= 3.251e-05
 </t>
         </r>
       </text>
@@ -2768,35 +2864,15 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">BP4	= 1
+          <t xml:space="preserve">BS2	= 1
+Observed in a healthy adult individual for a recessive (homozygous), dominant (heterozygous), or X-linked (hemizygous) disorder, with full penetrance expected at an early age, check ExAC_ALL
+BP4	= 1
 Multiple lines of computational evidence suggest no impact on gene or gene product (conservation, evolutionary,splicing impact, etc.)
-BS2	= 1
-Observed in a healthy adult individual for a recessive (homozygous), dominant (heterozygous), or X-linked (hemizygous) disorder, with full penetrance expected at an early age, check ExAC_ALL
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- SPEN:NM_015001:exon11:c.G3064A:p.V1022M
- SPEN:NM_015001:exon11:c.3064G&gt;A:p.V1022M
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2850,6 +2926,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ CCDC27:NM_152492:exon8:c.C1345G:p.Q449E
+ CCDC27:NM_152492:exon8:c.1345C&gt;G:p.Q449E
+GeneDetail.refGene:
+ .
+ID:
+ rs145188556
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D17" authorId="0">
       <text>
         <r>
@@ -2921,6 +3021,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 1.791e-05
 gnomAD_exome_OTH	= 0.0002
+gnomAD_exome_SAS	= 0.0006
 </t>
         </r>
       </text>
@@ -2947,26 +3048,6 @@
       </text>
     </comment>
     <comment ref="K17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- CCDC27:NM_152492:exon8:c.C1345G:p.Q449E
- CCDC27:NM_152492:exon8:c.1345C&gt;G:p.Q449E
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3023,6 +3104,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ COL16A1:NM_001856:exon16:c.A1193G:p.K398R
+ COL16A1:NM_001856:exon16:c.1193A&gt;G:p.K398R
+GeneDetail.refGene:
+ .
+ID:
+ rs115606583
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D18" authorId="0">
       <text>
         <r>
@@ -3098,6 +3203,7 @@
 gnomAD_exome_FIN	= 0.0003
 gnomAD_exome_NFE	= 0.0073
 gnomAD_exome_OTH	= 0.0062
+gnomAD_exome_SAS	= 0.0009
 </t>
         </r>
       </text>
@@ -3141,26 +3247,6 @@
       </text>
     </comment>
     <comment ref="K18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- COL16A1:NM_001856:exon16:c.A1193G:p.K398R
- COL16A1:NM_001856:exon16:c.1193A&gt;G:p.K398R
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,6 +3303,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ DISP3:NM_020780:exon6:c.G1625A:p.R542H
+ DISP3:NM_020780:exon6:c.1625G&gt;A:p.R542H
+GeneDetail.refGene:
+ .
+ID:
+ rs41274532
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D19" authorId="0">
       <text>
         <r>
@@ -3287,6 +3397,7 @@
 gnomAD_exome_FIN	= 0.0012
 gnomAD_exome_NFE	= 0.0049
 gnomAD_exome_OTH	= 0.0035
+gnomAD_exome_SAS	= 0.0004
 </t>
         </r>
       </text>
@@ -3330,26 +3441,6 @@
       </text>
     </comment>
     <comment ref="K19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- DISP3:NM_020780:exon6:c.G1625A:p.R542H
- DISP3:NM_020780:exon6:c.1625G&gt;A:p.R542H
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3403,6 +3494,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ CEP104:NM_014704:exon14:c.C1966T:p.R656C
+ CEP104:NM_014704:exon14:c.1966C&gt;T:p.R656C
+GeneDetail.refGene:
+ .
+ID:
+ rs148465057
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D20" authorId="0">
       <text>
         <r>
@@ -3476,6 +3591,7 @@
 gnomAD_exome_FIN	= 0.0012
 gnomAD_exome_NFE	= 0.0049
 gnomAD_exome_OTH	= 0.0015
+gnomAD_exome_SAS	= 0.0016
 </t>
         </r>
       </text>
@@ -3512,36 +3628,16 @@
           </rPr>
           <t xml:space="preserve">PM1	= 1
 Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
+PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 BP1	= 1
 Missense variant in a gene for which primarily truncating variants are known to cause disease truncating:  stop_gain / frameshift deletion/  nonframshift deletion
-	    We defined Protein truncating variants  (4) (table S1) as single-nucleotide variants (SNVs) predicted to introduce a premature stop codon or to disrupt a splice site, small insertions or deletions (indels) predicted to disrupt a transcript reading frame, and larger deletions 
-PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
+		We defined Protein truncating variants  (4) (table S1) as single-nucleotide variants (SNVs) predicted to introduce a premature stop codon or to disrupt a splice site, small insertions or deletions (indels) predicted to disrupt a transcript reading frame, and larger deletions 
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- CEP104:NM_014704:exon14:c.C1966T:p.R656C
- CEP104:NM_014704:exon14:c.1966C&gt;T:p.R656C
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3595,6 +3691,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ TAS1R3:NM_152228:exon5:c.C1528T:p.R510W
+ TAS1R3:NM_152228:exon5:c.1528C&gt;T:p.R510W
+GeneDetail.refGene:
+ .
+ID:
+ rs149755069
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D21" authorId="0">
       <text>
         <r>
@@ -3668,6 +3788,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 3.174e-05
 gnomAD_exome_OTH	= 0.0002
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -3709,26 +3830,6 @@
       </text>
     </comment>
     <comment ref="K21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- TAS1R3:NM_152228:exon5:c.C1528T:p.R510W
- TAS1R3:NM_152228:exon5:c.1528C&gt;T:p.R510W
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3782,124 +3883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">LOEUF = 0.678
-LOEUF_decile = 3.0
-oe_lof = 0.41841999999999996
-oe_lof_lower = 0.267
-Missense_upper = 0.81
-Function Description:
-FUNCTION:_Plays_multiple_roles_in_cell_cycle_progression,_cytokinesis_and_apoptosis._Involved_in_pre_mRNA_splicing_in_a_kinase_activity_dependent_manner._Isoform_7_may_act_as_a_negative_regulator_of_normal_cell_cycle_progression._{ECO:0000269|PubMed:12501247,_ECO:0000269|PubMed:12624090,_ECO:0000269|PubMed:18216018,_ECO:0000269|PubMed:2217177}.
-Tissue specificity:
-TISSUE_SPECIFICITY:_Expressed_ubiquitously._Some_evidence_of_isoform_specific_tissue_distribution._{ECO:0000269|PubMed:8195233,_ECO:0000269|PubMed:9750192}.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Disease_description.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0011
-gnomAD_genome_AFR	= 0.0034
-gnomAD_genome_AMR	= 0
-gnomAD_genome_ASJ	= 0
-gnomAD_genome_EAS	= 0.0020
-gnomAD_genome_FIN	= 0
-gnomAD_genome_NFE	= 0.0003
-gnomAD_genome_OTH	= 0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0007
-gnomAD_exome_AFR	= 0.0043
-gnomAD_exome_AMR	= 0.0003
-gnomAD_exome_ASJ	= 0.0001
-gnomAD_exome_EAS	= 0.0009
-gnomAD_exome_FIN	= 0.0002
-gnomAD_exome_NFE	= 0.0002
-gnomAD_exome_OTH	= 0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLNREVSTAT:
- .
-CLNDN:
- .
-CLNALLELEID:
- .
-CLNDISDB:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PP3	= 1
-Multiple lines of computational evidence support a deleterious effect on the gene or gene product (conservation, evolutionary, splicing impact, etc.) sfit for conservation, GERP++_RS for evolutionary, splicing impact from dbNSFP
-BS1	= 1
-Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3925,11 +3909,133 @@
  CDK11B:NM_033489:exon13:c.1066G&gt;A:p.D356N
 GeneDetail.refGene:
  .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L22" authorId="0">
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.678
+LOEUF_decile = 3.0
+oe_lof = 0.41841999999999996
+oe_lof_lower = 0.267
+Missense_upper = 0.81
+Function Description:
+FUNCTION:_Plays_multiple_roles_in_cell_cycle_progression,_cytokinesis_and_apoptosis._Involved_in_pre_mRNA_splicing_in_a_kinase_activity_dependent_manner._Isoform_7_may_act_as_a_negative_regulator_of_normal_cell_cycle_progression._{ECO:0000269|PubMed:12501247,_ECO:0000269|PubMed:12624090,_ECO:0000269|PubMed:18216018,_ECO:0000269|PubMed:2217177}.
+Tissue specificity:
+TISSUE_SPECIFICITY:_Expressed_ubiquitously._Some_evidence_of_isoform_specific_tissue_distribution._{ECO:0000269|PubMed:8195233,_ECO:0000269|PubMed:9750192}.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0011
+gnomAD_genome_AFR	= 0.0034
+gnomAD_genome_AMR	= 0
+gnomAD_genome_ASJ	= 0
+gnomAD_genome_EAS	= 0.0020
+gnomAD_genome_FIN	= 0
+gnomAD_genome_NFE	= 0.0003
+gnomAD_genome_OTH	= 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0007
+gnomAD_exome_AFR	= 0.0043
+gnomAD_exome_AMR	= 0.0003
+gnomAD_exome_ASJ	= 0.0001
+gnomAD_exome_EAS	= 0.0009
+gnomAD_exome_FIN	= 0.0002
+gnomAD_exome_NFE	= 0.0002
+gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0.0018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ .
+CLNDN:
+ .
+CLNALLELEID:
+ .
+CLNDISDB:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PP3	= 1
+Multiple lines of computational evidence support a deleterious effect on the gene or gene product (conservation, evolutionary, splicing impact, etc.) sfit for conservation, GERP++_RS for evolutionary, splicing impact from dbNSFP
+BS1	= 1
+Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3983,6 +4089,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PADI4:NM_012387:exon8:c.A926G:p.Y309C
+ PADI4:NM_012387:exon8:c.926A&gt;G:p.Y309C
+GeneDetail.refGene:
+ .
+ID:
+ rs33981382
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D23" authorId="0">
       <text>
         <r>
@@ -4058,6 +4188,7 @@
 gnomAD_exome_FIN	= 0.0076
 gnomAD_exome_NFE	= 0.0107
 gnomAD_exome_OTH	= 0.0123
+gnomAD_exome_SAS	= 0.0082
 </t>
         </r>
       </text>
@@ -4101,26 +4232,6 @@
       </text>
     </comment>
     <comment ref="K23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PADI4:NM_012387:exon8:c.A926G:p.Y309C
- PADI4:NM_012387:exon8:c.926A&gt;G:p.Y309C
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4174,6 +4285,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PRDM16:NM_022114:exon2:c.G367A:p.E123K
+ PRDM16:NM_199454:exon2:c.G367A:p.E123K
+ PRDM16:NM_022114:exon2:c.367G&gt;A:p.E123K
+ PRDM16:NM_199454:exon2:c.367G&gt;A:p.E123K
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D24" authorId="0">
       <text>
         <r>
@@ -4222,7 +4359,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -4243,7 +4380,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
 gnomAD_exome_AFR	= .
 gnomAD_exome_AMR	= .
 gnomAD_exome_ASJ	= .
@@ -4251,6 +4388,7 @@
 gnomAD_exome_FIN	= .
 gnomAD_exome_NFE	= .
 gnomAD_exome_OTH	= .
+gnomAD_exome_SAS	= .
 </t>
         </r>
       </text>
@@ -4294,28 +4432,6 @@
       </text>
     </comment>
     <comment ref="K24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PRDM16:NM_022114:exon2:c.G367A:p.E123K
- PRDM16:NM_199454:exon2:c.G367A:p.E123K
- PRDM16:NM_022114:exon2:c.367G&gt;A:p.E123K
- PRDM16:NM_199454:exon2:c.367G&gt;A:p.E123K
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4369,6 +4485,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ EPHA8:NM_020526:exon10:c.A1879G:p.T627A
+ EPHA8:NM_020526:exon10:c.1879A&gt;G:p.T627A
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D25" authorId="0">
       <text>
         <r>
@@ -4413,7 +4553,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -4442,6 +4582,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 3.583e-05
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -4485,26 +4626,6 @@
       </text>
     </comment>
     <comment ref="K25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- EPHA8:NM_020526:exon10:c.A1879G:p.T627A
- EPHA8:NM_020526:exon10:c.1879A&gt;G:p.T627A
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4558,6 +4679,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SDC3:NM_014654:exon3:c.G286A:p.A96T
+ SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
+GeneDetail.refGene:
+ .
+ID:
+ rs41269523
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D26" authorId="0">
       <text>
         <r>
@@ -4633,6 +4778,7 @@
 gnomAD_exome_FIN	= 0.0064
 gnomAD_exome_NFE	= 0.0138
 gnomAD_exome_OTH	= 0.0077
+gnomAD_exome_SAS	= 0.0099
 </t>
         </r>
       </text>
@@ -4674,26 +4820,6 @@
       </text>
     </comment>
     <comment ref="K26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- SDC3:NM_014654:exon3:c.G286A:p.A96T
- SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4747,6 +4873,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_001198801:exon3:r.spl
+ NM_001198802:exon3:r.spl
+ NM_001198803:exon3:r.spl
+ID:
+ .
+Func.refGene:
+ splicing
+ intronic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D27" authorId="0">
       <text>
         <r>
@@ -4812,7 +4964,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
 gnomAD_exome_AFR	= .
 gnomAD_exome_AMR	= .
 gnomAD_exome_ASJ	= .
@@ -4820,6 +4972,7 @@
 gnomAD_exome_FIN	= .
 gnomAD_exome_NFE	= .
 gnomAD_exome_OTH	= .
+gnomAD_exome_SAS	= .
 </t>
         </r>
       </text>
@@ -4846,27 +4999,6 @@
       </text>
     </comment>
     <comment ref="K27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_001198801:exon3:r.spl
- NM_001198802:exon3:r.spl
- NM_001198803:exon3:r.spl
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4920,6 +5052,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_152492:exon9:r.spl
+ID:
+ rs374337995
+Func.refGene:
+ splicing
+ intronic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D28" authorId="0">
       <text>
         <r>
@@ -4991,6 +5147,7 @@
 gnomAD_exome_FIN	= 0.0015
 gnomAD_exome_NFE	= 0.0103
 gnomAD_exome_OTH	= 0.0105
+gnomAD_exome_SAS	= 0.0341
 </t>
         </r>
       </text>
@@ -5017,25 +5174,6 @@
       </text>
     </comment>
     <comment ref="K28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_152492:exon9:r.spl
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5089,6 +5227,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ .
+AAChange.refGene:
+ .
+GeneDetail.refGene:
+ NM_201628:exon14:c.2163+46-&gt;AGGTCTTTTTTTTCTTCTCCCAGCGGC
+ID:
+ rs140963536
+Func.refGene:
+ ncRNA_exonic
+ splicing
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E29" authorId="0">
       <text>
         <r>
@@ -5113,7 +5275,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -5134,7 +5296,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
 gnomAD_exome_AFR	= .
 gnomAD_exome_AMR	= .
 gnomAD_exome_ASJ	= .
@@ -5142,6 +5304,7 @@
 gnomAD_exome_FIN	= .
 gnomAD_exome_NFE	= .
 gnomAD_exome_OTH	= .
+gnomAD_exome_SAS	= .
 </t>
         </r>
       </text>
@@ -5168,25 +5331,6 @@
       </text>
     </comment>
     <comment ref="K29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- .
-AAChange.refGene:
- .
-GeneDetail.refGene:
- NM_201628:exon14:c.2163+46-&gt;AGGTCTTTTTTTTCTTCTCCCAGCGGC
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5240,6 +5384,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ AGRN:NM_198576:exon10:c.G1865A:p.R622Q
+ AGRN:NM_198576:exon10:c.1865G&gt;A:p.R622Q
+GeneDetail.refGene:
+ .
+ID:
+ rs140789461
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D30" authorId="0">
       <text>
         <r>
@@ -5315,6 +5483,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 0.0001
 gnomAD_exome_OTH	= 0.0011
+gnomAD_exome_SAS	= 0.0003
 </t>
         </r>
       </text>
@@ -5358,26 +5527,6 @@
       </text>
     </comment>
     <comment ref="K30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- AGRN:NM_198576:exon10:c.G1865A:p.R622Q
- AGRN:NM_198576:exon10:c.1865G&gt;A:p.R622Q
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5431,6 +5580,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ HTR6:NM_000871:exon3:c.C1123A:p.P375T
+ HTR6:NM_000871:exon3:c.1123C&gt;A:p.P375T
+GeneDetail.refGene:
+ .
+ID:
+ rs8192533
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D31" authorId="0">
       <text>
         <r>
@@ -5506,6 +5679,7 @@
 gnomAD_exome_FIN	= 0.0009
 gnomAD_exome_NFE	= 0.0030
 gnomAD_exome_OTH	= 0.0010
+gnomAD_exome_SAS	= 0.0018
 </t>
         </r>
       </text>
@@ -5547,26 +5721,6 @@
       </text>
     </comment>
     <comment ref="K31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- HTR6:NM_000871:exon3:c.C1123A:p.P375T
- HTR6:NM_000871:exon3:c.1123C&gt;A:p.P375T
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5620,6 +5774,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ TRIM63:NM_032588:exon5:c.C609A:p.H203Q
+ TRIM63:NM_032588:exon5:c.609C&gt;A:p.H203Q
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D32" authorId="0">
       <text>
         <r>
@@ -5666,7 +5844,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -5695,6 +5873,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 9.084e-06
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -5721,26 +5900,6 @@
       </text>
     </comment>
     <comment ref="K32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- TRIM63:NM_032588:exon5:c.C609A:p.H203Q
- TRIM63:NM_032588:exon5:c.609C&gt;A:p.H203Q
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5794,120 +5953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">LOEUF = 0.844
-LOEUF_decile = 4.0
-oe_lof = 0.4975
-oe_lof_lower = 0.306
-Missense_upper = 0.984
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Disease_description.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0029
-gnomAD_genome_AFR	= 0.0013
-gnomAD_genome_AMR	= 0
-gnomAD_genome_ASJ	= 0
-gnomAD_genome_EAS	= 0.0086
-gnomAD_genome_FIN	= 0.0011
-gnomAD_genome_NFE	= 0.0039
-gnomAD_genome_OTH	= 0.0020
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0028
-gnomAD_exome_AFR	= 0.0005
-gnomAD_exome_AMR	= 0.0004
-gnomAD_exome_ASJ	= 0.0010
-gnomAD_exome_EAS	= 0.0103
-gnomAD_exome_FIN	= 0.0005
-gnomAD_exome_NFE	= 0.0038
-gnomAD_exome_OTH	= 0.0013
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLNREVSTAT:
- .
-CLNDN:
- .
-CLNALLELEID:
- .
-CLNDISDB:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">BP4	= 1
-Multiple lines of computational evidence suggest no impact on gene or gene product (conservation, evolutionary,splicing impact, etc.)
-BS1	= 1
-Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K33" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5939,11 +5985,129 @@
  NIPAL3:NM_001330409:exon3:c.19G&gt;A:p.A7T
 GeneDetail.refGene:
  .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L33" authorId="0">
+ID:
+ rs148391167
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.844
+LOEUF_decile = 4.0
+oe_lof = 0.4975
+oe_lof_lower = 0.306
+Missense_upper = 0.984
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0029
+gnomAD_genome_AFR	= 0.0013
+gnomAD_genome_AMR	= 0
+gnomAD_genome_ASJ	= 0
+gnomAD_genome_EAS	= 0.0086
+gnomAD_genome_FIN	= 0.0011
+gnomAD_genome_NFE	= 0.0039
+gnomAD_genome_OTH	= 0.0020
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0028
+gnomAD_exome_AFR	= 0.0005
+gnomAD_exome_AMR	= 0.0004
+gnomAD_exome_ASJ	= 0.0010
+gnomAD_exome_EAS	= 0.0103
+gnomAD_exome_FIN	= 0.0005
+gnomAD_exome_NFE	= 0.0038
+gnomAD_exome_OTH	= 0.0013
+gnomAD_exome_SAS	= 0.0009
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ .
+CLNDN:
+ .
+CLNALLELEID:
+ .
+CLNDISDB:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BP4	= 1
+Multiple lines of computational evidence suggest no impact on gene or gene product (conservation, evolutionary,splicing impact, etc.)
+BS1	= 1
+Allele frequency is greater than expected for disorder (see Table 6) &gt; 1% in ESP6500all ExAc? need to check more
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5997,6 +6161,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PADI4:NM_012387:exon3:c.C304A:p.P102T
+ PADI4:NM_012387:exon3:c.304C&gt;A:p.P102T
+GeneDetail.refGene:
+ .
+ID:
+ rs34309058
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D34" authorId="0">
       <text>
         <r>
@@ -6072,6 +6260,7 @@
 gnomAD_exome_FIN	= 0.0071
 gnomAD_exome_NFE	= 0.0174
 gnomAD_exome_OTH	= 0.0137
+gnomAD_exome_SAS	= 0.0017
 </t>
         </r>
       </text>
@@ -6117,26 +6306,6 @@
       </text>
     </comment>
     <comment ref="K34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PADI4:NM_012387:exon3:c.C304A:p.P102T
- PADI4:NM_012387:exon3:c.304C&gt;A:p.P102T
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6190,6 +6359,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ FBXO2:NM_012168:exon2:c.C334G:p.Q112E
+ FBXO2:NM_012168:exon2:c.334C&gt;G:p.Q112E
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D35" authorId="0">
       <text>
         <r>
@@ -6234,7 +6427,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -6263,6 +6456,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 9.807e-06
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -6306,26 +6500,6 @@
       </text>
     </comment>
     <comment ref="K35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- FBXO2:NM_012168:exon2:c.C334G:p.Q112E
- FBXO2:NM_012168:exon2:c.334C&gt;G:p.Q112E
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6379,6 +6553,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PLEKHN1:NM_001160184:exon10:c.A992G:p.E331G
+ PLEKHN1:NM_032129:exon10:c.A956G:p.E319G
+ PLEKHN1:NM_001160184:exon10:c.992A&gt;G:p.E331G
+ PLEKHN1:NM_032129:exon10:c.956A&gt;G:p.E319G
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D36" authorId="0">
       <text>
         <r>
@@ -6454,6 +6654,7 @@
 gnomAD_exome_FIN	= 0.0073
 gnomAD_exome_NFE	= 0.0062
 gnomAD_exome_OTH	= 0.0023
+gnomAD_exome_SAS	= 0.0009
 </t>
         </r>
       </text>
@@ -6497,28 +6698,6 @@
       </text>
     </comment>
     <comment ref="K36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PLEKHN1:NM_001160184:exon10:c.A992G:p.E331G
- PLEKHN1:NM_032129:exon10:c.A956G:p.E319G
- PLEKHN1:NM_001160184:exon10:c.992A&gt;G:p.E331G
- PLEKHN1:NM_032129:exon10:c.956A&gt;G:p.E319G
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6572,6 +6751,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ CRYBG2:NM_001039775:exon2:c.A2102G:p.D701G
+ CRYBG2:NM_001039775:exon2:c.2102A&gt;G:p.D701G
+GeneDetail.refGene:
+ .
+ID:
+ rs199647245
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E37" authorId="0">
       <text>
         <r>
@@ -6625,6 +6828,7 @@
 gnomAD_exome_FIN	= 9.28e-05
 gnomAD_exome_NFE	= 0.0042
 gnomAD_exome_OTH	= 0.0030
+gnomAD_exome_SAS	= 0.0020
 </t>
         </r>
       </text>
@@ -6666,26 +6870,6 @@
       </text>
     </comment>
     <comment ref="K37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- CRYBG2:NM_001039775:exon2:c.A2102G:p.D701G
- CRYBG2:NM_001039775:exon2:c.2102A&gt;G:p.D701G
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6702,31 +6886,6 @@
 Genotype-B00GMSJ	 -	 0/0
 DP = 93	 AD = 93,0	 AB = 0
 </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pLI - the probability of being loss-of-function intolerant (intolerant of both heterozygous and homozygous lof variants)
-pRec - the probability of being intolerant of homozygous, but not heterozygous lof variants
-pNull - the probability of being tolerant of both heterozygous and homozygous lof variants</t>
         </r>
       </text>
     </comment>
@@ -6799,6 +6958,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ MFN2:NM_001127660:exon8:c.G892A:p.G298R
+ MFN2:NM_014874:exon9:c.G892A:p.G298R
+ MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
+ MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
+GeneDetail.refGene:
+ .
+ID:
+ rs41278630
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D2" authorId="0">
       <text>
         <r>
@@ -6876,6 +7061,7 @@
 gnomAD_exome_FIN	= 0.0010
 gnomAD_exome_NFE	= 0.0034
 gnomAD_exome_OTH	= 0.0024
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -6914,37 +7100,15 @@
 Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
 PP3	= 1
 Multiple lines of computational evidence support a deleterious effect on the gene or gene product (conservation, evolutionary, splicing impact, etc.) sfit for conservation, GERP++_RS for evolutionary, splicing impact from dbNSFP
+PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 BP6	= 1
 Reputable source recently reports variant as benign, but the evidence is not available to the laboratory to perform an independent evaluation; Check the ClinVar column to see whether this is "benign".
-PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- MFN2:NM_001127660:exon8:c.G892A:p.G298R
- MFN2:NM_014874:exon9:c.G892A:p.G298R
- MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
- MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6965,6 +7129,396 @@
       </text>
     </comment>
     <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MPA_ranking	= 7
+MPA_final_score	= 2.2222222222222223
+MPA_impact	= missense_impact
+MPA_adjusted	= 2.2222222222222223
+MPA_available	= 9
+MPA_deleterious	= 2
+--- SPLICE ---
+dbscSNV_ADA_SCORE	= .
+dbscSNV_RF_SCORE	= .
+spliceai_filtered	= .
+--- MISSENSE ---
+LRT_pred	= .
+SIFT_pred	= T
+FATHMM_pred	= T
+MetaLR_pred	= T
+MetaSVM_pred	= T
+PROVEAN_pred	= N
+Polyphen2_HDIV_pred	= P
+Polyphen2_HVAR_pred	= B
+MutationTaster_pred	= D
+fathmm-MKL_coding_pred	= D
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SPEN:NM_015001:exon11:c.G2351A:p.R784H
+ SPEN:NM_015001:exon11:c.2351G&gt;A:p.R784H
+GeneDetail.refGene:
+ .
+ID:
+ rs181758065
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.071
+LOEUF_decile = 0.0
+oe_lof = 0.031010000000000003
+oe_lof_lower = 0.014
+Missense_upper = 0.854
+Function Description:
+FUNCTION:_May_serve_as_a_nuclear_matrix_platform_that_organizes_and_integrates_transcriptional_responses._In_osteoblasts,_supports_transcription_activation:_synergizes_with_RUNX2_to_enhance_FGFR2_mediated_activation_of_the_osteocalcin_FGF_responsive_element_(OCFRE)_(By_similarity)._Has_also_been_shown_to_be_an_essential_corepressor_protein,_which_probably_regulates_different_key_pathways_such_as_the_Notch_pathway._Negative_regulator_of_the_Notch_pathway_via_its_interaction_with_RBPSUH,_which_prevents_the_association_between_NOTCH1_and_RBPSUH,_and_therefore_suppresses_the_transactivation_activity_of_Notch_signaling._Blocks_the_differentiation_of_precursor_B_cells_into_marginal_zone_B_cells._Probably_represses_transcription_via_the_recruitment_of_large_complexes_containing_histone_deacetylase_proteins._May_bind_both_to_DNA_and_RNA._{ECO:0000250,_ECO:0000269|PubMed:11331609,_ECO:0000269|PubMed:12374742}.
+Tissue specificity:
+TISSUE_SPECIFICITY:_Expressed_at_high_level_in_brain,_testis,_spleen_and_thymus._Expressed_at_intermediate_level_in_kidney,_liver,_mammary_gland_and_skin.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 6.46e-05
+gnomAD_genome_AFR	= 0
+gnomAD_genome_AMR	= 0
+gnomAD_genome_ASJ	= 0
+gnomAD_genome_EAS	= 0
+gnomAD_genome_FIN	= 0
+gnomAD_genome_NFE	= 0.0001
+gnomAD_genome_OTH	= 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0002
+gnomAD_exome_AFR	= 0.0002
+gnomAD_exome_AMR	= 0.0004
+gnomAD_exome_ASJ	= 0
+gnomAD_exome_EAS	= 0
+gnomAD_exome_FIN	= 0
+gnomAD_exome_NFE	= 0.0003
+gnomAD_exome_OTH	= 0.0005
+gnomAD_exome_SAS	= 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ .
+CLNDN:
+ .
+CLNALLELEID:
+ .
+CLNDISDB:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BS2	= 1
+Observed in a healthy adult individual for a recessive (homozygous), dominant (heterozygous), or X-linked (hemizygous) disorder, with full penetrance expected at an early age, check ExAC_ALL
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CALLER = GATK	 QUALITY = 4369.16
+Genotype-B00GMSH	 -	 0/1
+DP = 126	 AD = 54,72	 AB = 0.571
+Genotype-B00GMSI	 -	 0/0
+DP = 152	 AD = 152,0	 AB = 0
+Genotype-B00GMSJ	 -	 0/1
+DP = 144	 AD = 75,69	 AB = 0.479
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MPA_ranking	= 9
+MPA_final_score	= 0.0
+MPA_impact	= missense_impact
+MPA_adjusted	= 0.0
+MPA_available	= 9
+MPA_deleterious	= 0
+--- SPLICE ---
+dbscSNV_ADA_SCORE	= .
+dbscSNV_RF_SCORE	= .
+spliceai_filtered	= .
+--- MISSENSE ---
+LRT_pred	= .
+SIFT_pred	= T
+FATHMM_pred	= T
+MetaLR_pred	= T
+MetaSVM_pred	= T
+PROVEAN_pred	= N
+Polyphen2_HDIV_pred	= B
+Polyphen2_HVAR_pred	= B
+MutationTaster_pred	= N
+fathmm-MKL_coding_pred	= N
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SPEN:NM_015001:exon11:c.G3064A:p.V1022M
+ SPEN:NM_015001:exon11:c.3064G&gt;A:p.V1022M
+GeneDetail.refGene:
+ .
+ID:
+ rs115566585
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LOEUF = 0.071
+LOEUF_decile = 0.0
+oe_lof = 0.031010000000000003
+oe_lof_lower = 0.014
+Missense_upper = 0.854
+Function Description:
+FUNCTION:_May_serve_as_a_nuclear_matrix_platform_that_organizes_and_integrates_transcriptional_responses._In_osteoblasts,_supports_transcription_activation:_synergizes_with_RUNX2_to_enhance_FGFR2_mediated_activation_of_the_osteocalcin_FGF_responsive_element_(OCFRE)_(By_similarity)._Has_also_been_shown_to_be_an_essential_corepressor_protein,_which_probably_regulates_different_key_pathways_such_as_the_Notch_pathway._Negative_regulator_of_the_Notch_pathway_via_its_interaction_with_RBPSUH,_which_prevents_the_association_between_NOTCH1_and_RBPSUH,_and_therefore_suppresses_the_transactivation_activity_of_Notch_signaling._Blocks_the_differentiation_of_precursor_B_cells_into_marginal_zone_B_cells._Probably_represses_transcription_via_the_recruitment_of_large_complexes_containing_histone_deacetylase_proteins._May_bind_both_to_DNA_and_RNA._{ECO:0000250,_ECO:0000269|PubMed:11331609,_ECO:0000269|PubMed:12374742}.
+Tissue specificity:
+TISSUE_SPECIFICITY:_Expressed_at_high_level_in_brain,_testis,_spleen_and_thymus._Expressed_at_intermediate_level_in_kidney,_liver,_mammary_gland_and_skin.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Disease_description.refGene:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0.0014
+gnomAD_genome_AFR	= 0.0008
+gnomAD_genome_AMR	= 0.0036
+gnomAD_genome_ASJ	= 0
+gnomAD_genome_EAS	= 0
+gnomAD_genome_FIN	= 0.0006
+gnomAD_genome_NFE	= 0.0020
+gnomAD_genome_OTH	= 0.0020
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0.0018
+gnomAD_exome_AFR	= 0.0006
+gnomAD_exome_AMR	= 0.0021
+gnomAD_exome_ASJ	= 0.0002
+gnomAD_exome_EAS	= 0
+gnomAD_exome_FIN	= 8.969e-05
+gnomAD_exome_NFE	= 0.0030
+gnomAD_exome_OTH	= 0.0042
+gnomAD_exome_SAS	= 3.251e-05
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CLNREVSTAT:
+ .
+CLNDN:
+ .
+CLNALLELEID:
+ .
+CLNDISDB:
+ .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BS2	= 1
+Observed in a healthy adult individual for a recessive (homozygous), dominant (heterozygous), or X-linked (hemizygous) disorder, with full penetrance expected at an early age, check ExAC_ALL
+BP4	= 1
+Multiple lines of computational evidence suggest no impact on gene or gene product (conservation, evolutionary,splicing impact, etc.)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CALLER = GATK	 QUALITY = 2747.16
+Genotype-B00GMSH	 -	 0/1
+DP = 73	 AD = 37,36	 AB = 0.493
+Genotype-B00GMSI	 -	 0/0
+DP = 99	 AD = 99,0	 AB = 0
+Genotype-B00GMSJ	 -	 0/1
+DP = 109	 AD = 52,57	 AB = 0.522
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6998,7 +7552,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ PRDM16:NM_022114:exon2:c.G367A:p.E123K
+ PRDM16:NM_199454:exon2:c.G367A:p.E123K
+ PRDM16:NM_022114:exon2:c.367G&gt;A:p.E123K
+ PRDM16:NM_199454:exon2:c.367G&gt;A:p.E123K
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7020,7 +7600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7037,16 +7617,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_genome_ALL	= .
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_genome_ALL	= 0
 gnomAD_genome_AFR	= .
 gnomAD_genome_AMR	= .
 gnomAD_genome_ASJ	= .
@@ -7058,16 +7638,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">gnomAD_exome_ALL	= .
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">gnomAD_exome_ALL	= 0
 gnomAD_exome_AFR	= .
 gnomAD_exome_AMR	= .
 gnomAD_exome_ASJ	= .
@@ -7075,11 +7655,12 @@
 gnomAD_exome_FIN	= .
 gnomAD_exome_NFE	= .
 gnomAD_exome_OTH	= .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
+gnomAD_exome_SAS	= .
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7100,7 +7681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7117,29 +7698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- PRDM16:NM_022114:exon2:c.G367A:p.E123K
- PRDM16:NM_199454:exon2:c.G367A:p.E123K
- PRDM16:NM_022114:exon2:c.367G&gt;A:p.E123K
- PRDM16:NM_199454:exon2:c.367G&gt;A:p.E123K
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7159,7 +7718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7193,7 +7752,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SDC3:NM_014654:exon3:c.G286A:p.A96T
+ SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
+GeneDetail.refGene:
+ .
+ID:
+ rs41269523
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7215,7 +7798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7230,7 +7813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7251,7 +7834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7268,11 +7851,12 @@
 gnomAD_exome_FIN	= 0.0064
 gnomAD_exome_NFE	= 0.0138
 gnomAD_exome_OTH	= 0.0077
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
+gnomAD_exome_SAS	= 0.0099
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7293,7 +7877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7308,27 +7892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- SDC3:NM_014654:exon3:c.G286A:p.A96T
- SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7392,6 +7956,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ H6PD:NM_001282587:exon5:c.C1802T:p.S601L
+ H6PD:NM_004285:exon5:c.C1769T:p.S590L
+ H6PD:NM_001282587:exon5:c.1802C&gt;T:p.S601L
+ H6PD:NM_004285:exon5:c.1769C&gt;T:p.S590L
+GeneDetail.refGene:
+ .
+ID:
+ .
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D2" authorId="0">
       <text>
         <r>
@@ -7467,6 +8057,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 9.54e-06
 gnomAD_exome_OTH	= 0
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -7512,28 +8103,6 @@
       </text>
     </comment>
     <comment ref="K2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- H6PD:NM_001282587:exon5:c.C1802T:p.S601L
- H6PD:NM_004285:exon5:c.C1769T:p.S590L
- H6PD:NM_001282587:exon5:c.1802C&gt;T:p.S601L
- H6PD:NM_004285:exon5:c.1769C&gt;T:p.S590L
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7587,6 +8156,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ MFN2:NM_001127660:exon8:c.G892A:p.G298R
+ MFN2:NM_014874:exon9:c.G892A:p.G298R
+ MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
+ MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
+GeneDetail.refGene:
+ .
+ID:
+ rs41278630
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D3" authorId="0">
       <text>
         <r>
@@ -7664,6 +8259,7 @@
 gnomAD_exome_FIN	= 0.0010
 gnomAD_exome_NFE	= 0.0034
 gnomAD_exome_OTH	= 0.0024
+gnomAD_exome_SAS	= 0
 </t>
         </r>
       </text>
@@ -7702,37 +8298,15 @@
 Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
 PP3	= 1
 Multiple lines of computational evidence support a deleterious effect on the gene or gene product (conservation, evolutionary, splicing impact, etc.) sfit for conservation, GERP++_RS for evolutionary, splicing impact from dbNSFP
+PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 BP6	= 1
 Reputable source recently reports variant as benign, but the evidence is not available to the laboratory to perform an independent evaluation; Check the ClinVar column to see whether this is "benign".
-PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- MFN2:NM_001127660:exon8:c.G892A:p.G298R
- MFN2:NM_014874:exon9:c.G892A:p.G298R
- MFN2:NM_001127660:exon8:c.892G&gt;A:p.G298R
- MFN2:NM_014874:exon9:c.892G&gt;A:p.G298R
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7786,6 +8360,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ CEP104:NM_014704:exon14:c.C1966T:p.R656C
+ CEP104:NM_014704:exon14:c.1966C&gt;T:p.R656C
+GeneDetail.refGene:
+ .
+ID:
+ rs148465057
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
@@ -7859,6 +8457,7 @@
 gnomAD_exome_FIN	= 0.0012
 gnomAD_exome_NFE	= 0.0049
 gnomAD_exome_OTH	= 0.0015
+gnomAD_exome_SAS	= 0.0016
 </t>
         </r>
       </text>
@@ -7895,36 +8494,16 @@
           </rPr>
           <t xml:space="preserve">PM1	= 1
 Located in a mutational hot spot and/or critical and well-established functional domain (e.g., active site of an enzyme) without benign variation
+PM2	= 1
+Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
 BP1	= 1
 Missense variant in a gene for which primarily truncating variants are known to cause disease truncating:  stop_gain / frameshift deletion/  nonframshift deletion
-	    We defined Protein truncating variants  (4) (table S1) as single-nucleotide variants (SNVs) predicted to introduce a premature stop codon or to disrupt a splice site, small insertions or deletions (indels) predicted to disrupt a transcript reading frame, and larger deletions 
-PM2	= 1
-Absent from controls (or at extremely low frequency if recessive) (Table 6) in Exome Sequencing Project, 1000 Genomes Project, or Exome Aggregation Consortium
+		We defined Protein truncating variants  (4) (table S1) as single-nucleotide variants (SNVs) predicted to introduce a premature stop codon or to disrupt a splice site, small insertions or deletions (indels) predicted to disrupt a transcript reading frame, and larger deletions 
 </t>
         </r>
       </text>
     </comment>
     <comment ref="K4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- CEP104:NM_014704:exon14:c.C1966T:p.R656C
- CEP104:NM_014704:exon14:c.1966C&gt;T:p.R656C
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7978,6 +8557,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ SDC3:NM_014654:exon3:c.G286A:p.A96T
+ SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
+GeneDetail.refGene:
+ .
+ID:
+ rs41269523
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
@@ -8053,6 +8656,7 @@
 gnomAD_exome_FIN	= 0.0064
 gnomAD_exome_NFE	= 0.0138
 gnomAD_exome_OTH	= 0.0077
+gnomAD_exome_SAS	= 0.0099
 </t>
         </r>
       </text>
@@ -8094,26 +8698,6 @@
       </text>
     </comment>
     <comment ref="K5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- SDC3:NM_014654:exon3:c.G286A:p.A96T
- SDC3:NM_014654:exon3:c.286G&gt;A:p.A96T
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8167,6 +8751,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ExonicFunc.refGene:
+ nonsynonymous_SNV
+AAChange.refGene:
+ AGRN:NM_198576:exon10:c.G1865A:p.R622Q
+ AGRN:NM_198576:exon10:c.1865G&gt;A:p.R622Q
+GeneDetail.refGene:
+ .
+ID:
+ rs140789461
+Func.refGene:
+ exonic
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D6" authorId="0">
       <text>
         <r>
@@ -8242,6 +8850,7 @@
 gnomAD_exome_FIN	= 0
 gnomAD_exome_NFE	= 0.0001
 gnomAD_exome_OTH	= 0.0011
+gnomAD_exome_SAS	= 0.0003
 </t>
         </r>
       </text>
@@ -8285,26 +8894,6 @@
       </text>
     </comment>
     <comment ref="K6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ExonicFunc.refGene:
- nonsynonymous_SNV
-AAChange.refGene:
- AGRN:NM_198576:exon10:c.G1865A:p.R622Q
- AGRN:NM_198576:exon10:c.1865G&gt;A:p.R622Q
-GeneDetail.refGene:
- .
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8454,7 +9043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="124">
   <si>
     <t>MPA_ranking</t>
   </si>
@@ -8471,10 +9060,10 @@
     <t>Phenotypes.refGene</t>
   </si>
   <si>
-    <t>gnomAD_genome_ALL</t>
+    <t>gnomAD_Genome</t>
   </si>
   <si>
-    <t>gnomAD_exome_ALL</t>
+    <t>gnomAD_Exome</t>
   </si>
   <si>
     <t>CLNSIG</t>
@@ -8486,9 +9075,6 @@
     <t>SecondHit-CNV</t>
   </si>
   <si>
-    <t>Func.refGene</t>
-  </si>
-  <si>
     <t>Genotype-B00GMSH</t>
   </si>
   <si>
@@ -8498,22 +9084,16 @@
     <t>Genotype-B00GMSJ</t>
   </si>
   <si>
-    <t>#CHROM</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>ALT</t>
+    <t>#CHROMPOSREFALT</t>
   </si>
   <si>
     <t>FILTER</t>
+  </si>
+  <si>
+    <t>Case Depth</t>
+  </si>
+  <si>
+    <t>Case AB</t>
   </si>
   <si>
     <t>METADATA</t>
@@ -8528,25 +9108,13 @@
     <t>C1orf159</t>
   </si>
   <si>
-    <t>splicing;intronic</t>
-  </si>
-  <si>
     <t>0/1</t>
   </si>
   <si>
     <t>0/0</t>
   </si>
   <si>
-    <t>chr1</t>
-  </si>
-  <si>
-    <t>rs143221733</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>chr1-1027366-C-T</t>
   </si>
   <si>
     <t>PASS</t>
@@ -8561,13 +9129,7 @@
     <t>Uncertain_significance</t>
   </si>
   <si>
-    <t>exonic</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>chr1-20470031-G-A</t>
   </si>
   <si>
     <t>9_missense_impact</t>
@@ -8579,10 +9141,16 @@
     <t>Cortisone_reductase_deficiency_1,_604931__3_,_Autosomal_recessive</t>
   </si>
   <si>
+    <t>chr1-9324321-C-T</t>
+  </si>
+  <si>
     <t>7_missense_impact</t>
   </si>
   <si>
     <t>EPHA8</t>
+  </si>
+  <si>
+    <t>chr1-22923931-A-G</t>
   </si>
   <si>
     <t>7_missense_impact,splice_impact</t>
@@ -8591,7 +9159,7 @@
     <t>AKR7A2</t>
   </si>
   <si>
-    <t>rs146046785</t>
+    <t>chr1-19635077-G-A</t>
   </si>
   <si>
     <t>6_missense_impact</t>
@@ -8606,7 +9174,7 @@
     <t>Conflicting_interpretations_of_pathogenicity</t>
   </si>
   <si>
-    <t>rs41278630</t>
+    <t>chr1-12061533-G-A</t>
   </si>
   <si>
     <t>5_missense_impact</t>
@@ -8618,7 +9186,7 @@
     <t>Benign</t>
   </si>
   <si>
-    <t>rs41284294</t>
+    <t>chr1-28206250-T-C</t>
   </si>
   <si>
     <t>4_missense_impact</t>
@@ -8627,7 +9195,7 @@
     <t>KIAA2013</t>
   </si>
   <si>
-    <t>rs145773140</t>
+    <t>chr1-11983352-C-T</t>
   </si>
   <si>
     <t>3_missense_impact</t>
@@ -8636,10 +9204,13 @@
     <t>KAZN</t>
   </si>
   <si>
+    <t>chr1-15386706-G-C</t>
+  </si>
+  <si>
     <t>CRYBG2</t>
   </si>
   <si>
-    <t>rs144282899</t>
+    <t>chr1-26650711-C-G</t>
   </si>
   <si>
     <t>2_missense_impact</t>
@@ -8648,19 +9219,22 @@
     <t>SPEN</t>
   </si>
   <si>
-    <t>rs181758065</t>
+    <t>.Radio-Tartaglia syndrome, 619312 (3), Autosomal dominant;</t>
+  </si>
+  <si>
+    <t>chr1-16255086-G-A</t>
   </si>
   <si>
     <t>FAM131C</t>
   </si>
   <si>
-    <t>GCCCA</t>
+    <t>chr1-16385954-GCCCA-G</t>
   </si>
   <si>
     <t>MST1L</t>
   </si>
   <si>
-    <t>AT</t>
+    <t>chr1-17090902-A-AT</t>
   </si>
   <si>
     <t>1_missense_impact</t>
@@ -8669,7 +9243,7 @@
     <t>GPR153</t>
   </si>
   <si>
-    <t>rs142015102</t>
+    <t>chr1-6310562-C-G</t>
   </si>
   <si>
     <t>0_missense_impact</t>
@@ -8678,13 +9252,13 @@
     <t>Likely_benign</t>
   </si>
   <si>
-    <t>rs115566585</t>
+    <t>chr1-16255799-G-A</t>
   </si>
   <si>
     <t>CCDC27</t>
   </si>
   <si>
-    <t>rs145188556</t>
+    <t>chr1-3680293-C-G</t>
   </si>
   <si>
     <t>missense_impact,splice_impact</t>
@@ -8693,13 +9267,13 @@
     <t>COL16A1</t>
   </si>
   <si>
-    <t>rs115606583</t>
+    <t>chr1-32158076-T-C</t>
   </si>
   <si>
     <t>DISP3</t>
   </si>
   <si>
-    <t>rs41274532</t>
+    <t>chr1-11576094-G-A</t>
   </si>
   <si>
     <t>CEP104</t>
@@ -8708,16 +9282,19 @@
     <t>Joubert_syndrome_25,_616781__3_,_Autosomal_recessive</t>
   </si>
   <si>
-    <t>rs148465057</t>
+    <t>chr1-3746432-G-A</t>
   </si>
   <si>
     <t>TAS1R3</t>
   </si>
   <si>
-    <t>rs149755069</t>
+    <t>chr1-1268687-C-T</t>
   </si>
   <si>
     <t>CDK11B</t>
+  </si>
+  <si>
+    <t>chr1-1575715-C-T</t>
   </si>
   <si>
     <t>PADI4</t>
@@ -8726,7 +9303,7 @@
     <t>{Rheumatoid_arthritis,_susceptibility_to},_180300__3_</t>
   </si>
   <si>
-    <t>rs33981382</t>
+    <t>chr1-17668888-A-G</t>
   </si>
   <si>
     <t>PRDM16</t>
@@ -8735,40 +9312,37 @@
     <t>Left_ventricular_noncompaction_8,_615373__3_,_Autosomal_dominant;_Cardiomyopathy,_dilated,_1LL,_615373__3_,_Autosomal_dominant</t>
   </si>
   <si>
+    <t>chr1-3103018-G-A</t>
+  </si>
+  <si>
+    <t>chr1-22923918-A-G</t>
+  </si>
+  <si>
     <t>SDC3</t>
   </si>
   <si>
     <t>{Obesity,_association_with},_601665__3_,_Multifactorial,_Autosomal_recessive,_Autosomal_dominant</t>
   </si>
   <si>
-    <t>rs41269523</t>
+    <t>chr1-31349983-C-T</t>
   </si>
   <si>
     <t>EIF4G3</t>
   </si>
   <si>
-    <t>TCAAA</t>
+    <t>chr1-21415549-TCAAA-T</t>
   </si>
   <si>
-    <t>rs374337995</t>
-  </si>
-  <si>
-    <t>TTC</t>
+    <t>chr1-3683083-TTC-T</t>
   </si>
   <si>
     <t>TMEM51-AS1;KAZN</t>
   </si>
   <si>
-    <t>ncRNA_exonic;splicing</t>
-  </si>
-  <si>
     <t>1/1</t>
   </si>
   <si>
-    <t>rs140963536</t>
-  </si>
-  <si>
-    <t>AAGGTCTTTTTTTTCTTCTCCCAGCGGC</t>
+    <t>chr1-15439083-A-AAGGTCTTTTTTTTCTTCTCCCAGCGGC</t>
   </si>
   <si>
     <t>AGRN</t>
@@ -8777,46 +9351,61 @@
     <t>Myasthenic_syndrome,_congenital,_8,_with_pre__and_postsynaptic_defects,_615120__3_,_Autosomal_recessive</t>
   </si>
   <si>
-    <t>rs140789461</t>
+    <t>chr1-979269-G-A</t>
   </si>
   <si>
     <t>HTR6</t>
   </si>
   <si>
-    <t>rs8192533</t>
+    <t>chr1-20005661-C-A</t>
   </si>
   <si>
     <t>TRIM63</t>
   </si>
   <si>
+    <t>chr1-26385103-G-T</t>
+  </si>
+  <si>
     <t>NIPAL3</t>
   </si>
   <si>
-    <t>rs148391167</t>
+    <t>chr1-24746056-G-A</t>
   </si>
   <si>
-    <t>rs34309058</t>
+    <t>chr1-17660468-C-A</t>
   </si>
   <si>
     <t>FBXO2</t>
   </si>
   <si>
+    <t>chr1-11710580-G-C</t>
+  </si>
+  <si>
     <t>PLEKHN1</t>
   </si>
   <si>
-    <t>rs199647245</t>
+    <t>chr1-907758-A-G</t>
   </si>
   <si>
-    <t>Dad status : OK (log10(6/10) &lt; 0.1), Inherited Heterozygous variants Ratio tends toward 0.</t>
+    <t>chr1-26671047-T-C</t>
   </si>
   <si>
-    <t>Mum status : OK (log10(10/8) &lt; 0.1), Inherited Heterozygous variants Ratio tends toward 0.</t>
+    <t>Dad status : BAD -0.221	 [log10(6/10) is out of range -0.13 to 0.1], log10 of Inherited Heterozygous variants Ratio tends toward 0.</t>
+  </si>
+  <si>
+    <t>Dad Pool status : BAD 0.3802	 [log10(6/(10/4)) is out of range -0.05 to 0.2], log10 of Inherited Heterozygous variants Ratio tends toward 0.</t>
+  </si>
+  <si>
+    <t>Mum status : OK 0.0969	 [log10(10/8) is in the range -0.13 to 0.1], log10 of Inherited Heterozygous variants Ratio tends toward 0.</t>
+  </si>
+  <si>
+    <t>Mum Pool status : BAD 0.6989	 [log10(10/(8/4)) is out of range -0.05 to 0.2], log10 of Inherited Heterozygous variants Ratio tends toward 0.</t>
   </si>
   <si>
     <t>Arguments:</t>
   </si>
   <si>
-    <t xml:space="preserve">--vcf   INPUT_hg19_multianno_MPA.vcf   --candidates   candidats.txt   --trio   --case   B00GMSH   --dad   B00GMSI   --mum   B00GMSJ   --outPrefix   short   </t>
+    <t xml:space="preserve">--vcf   /home/tg/TOOLS/Captain-ACHAB/INPUT_hg19_multianno_MPA.vcf   --case   B00GMSH   --dad   B00GMSI   --mum   B00GMSJ   --addCaseDepth   --addCaseAB   --outPrefix   short   --genemap2File   genemap2.txt   </t>
   </si>
   <si>
     <t>VCF Header:</t>
@@ -9048,18 +9637,28 @@
 #CHROM	POS	ID	REF	ALT	QUAL	FILTER	INFO	FORMAT	B00GMSH	B00GMSI	B00GMSJ
 </t>
   </si>
+  <si>
+    <t>Intersect VCF evaluation:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -9157,12 +9756,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -9176,7 +9779,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9469,7 +10073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9478,7 +10082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9530,31 +10134,22 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0.0053</v>
@@ -9563,57 +10158,48 @@
         <v>0.0047</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
       <c r="P2">
-        <v>1027366</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
+        <v>96</v>
+      </c>
+      <c r="Q2">
+        <v>0.458</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>3.233e-05</v>
@@ -9622,57 +10208,48 @@
         <v>4.068e-06</v>
       </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P3">
-        <v>20470031</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="Q3">
+        <v>0.575</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>3.233e-05</v>
@@ -9681,116 +10258,98 @@
         <v>8.577e-06</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P4">
-        <v>9324321</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P5">
-        <v>22923931</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="Q5">
+        <v>0.495</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0.0003</v>
@@ -9799,57 +10358,48 @@
         <v>7.722e-05</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P6">
-        <v>19635077</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="Q6">
+        <v>0.513</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>0.0023</v>
@@ -9858,57 +10408,48 @@
         <v>0.0021</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P7">
-        <v>12061533</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>0.0066</v>
@@ -9917,57 +10458,48 @@
         <v>0.0082</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P8">
-        <v>28206250</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" t="s">
-        <v>31</v>
+        <v>289</v>
+      </c>
+      <c r="Q8">
+        <v>0.536</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>0.0016</v>
@@ -9976,116 +10508,98 @@
         <v>0.002</v>
       </c>
       <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
       <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P9">
-        <v>11983352</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="Q9">
+        <v>0.444</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
+      <c r="N10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P10">
-        <v>15386706</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s">
-        <v>31</v>
+        <v>121</v>
+      </c>
+      <c r="Q10">
+        <v>0.495</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0.0016</v>
@@ -10094,57 +10608,48 @@
         <v>0.0012</v>
       </c>
       <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
       <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P11">
-        <v>26650711</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
+        <v>217</v>
+      </c>
+      <c r="Q11">
+        <v>0.557</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>62</v>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>6.46e-05</v>
@@ -10153,57 +10658,48 @@
         <v>0.0002</v>
       </c>
       <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
       <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P12">
-        <v>16255086</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s">
-        <v>31</v>
+        <v>126</v>
+      </c>
+      <c r="Q12">
+        <v>0.571</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -10212,57 +10708,48 @@
         <v>1.287e-05</v>
       </c>
       <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="M13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
       <c r="P13">
-        <v>16385954</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
-        <v>31</v>
+        <v>194</v>
+      </c>
+      <c r="Q13">
+        <v>0.242</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0.0078</v>
@@ -10271,57 +10758,48 @@
         <v>0.2009</v>
       </c>
       <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="N14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
       <c r="P14">
-        <v>17090902</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T14" t="s">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="Q14">
+        <v>0.224</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>69</v>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>0.0088</v>
@@ -10330,57 +10808,48 @@
         <v>0.0065</v>
       </c>
       <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
+      <c r="N15" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P15">
-        <v>6310562</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="Q15">
+        <v>0.454</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>72</v>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>0.0014</v>
@@ -10389,57 +10858,48 @@
         <v>0.0018</v>
       </c>
       <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16">
         <v>73</v>
       </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16">
-        <v>16255799</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
+      <c r="Q16">
+        <v>0.493</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>72</v>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>6.467e-05</v>
@@ -10448,57 +10908,48 @@
         <v>8.934e-05</v>
       </c>
       <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
       <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P17">
-        <v>3680293</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="Q17">
+        <v>0.379</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>0.0033</v>
@@ -10507,57 +10958,48 @@
         <v>0.0053</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P18">
-        <v>32158076</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>0.0033</v>
@@ -10566,57 +11008,48 @@
         <v>0.0029</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P19">
-        <v>11576094</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" t="s">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>0.002</v>
@@ -10625,57 +11058,48 @@
         <v>0.0028</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P20">
-        <v>3746432</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" t="s">
-        <v>31</v>
+        <v>103</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>0.0002</v>
@@ -10684,57 +11108,48 @@
         <v>8.367e-05</v>
       </c>
       <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P21">
-        <v>1268687</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>0.0011</v>
@@ -10743,57 +11158,48 @@
         <v>0.0007</v>
       </c>
       <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
       <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>1575715</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" t="s">
-        <v>31</v>
+        <v>133</v>
+      </c>
+      <c r="Q22">
+        <v>0.045</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>0.0058</v>
@@ -10802,175 +11208,148 @@
         <v>0.0081</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P23">
-        <v>17668888</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T23" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
       <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P24">
-        <v>3103018</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T24" t="s">
-        <v>31</v>
+        <v>138</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1.625e-05</v>
       </c>
       <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" t="s">
-        <v>35</v>
-      </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="O25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P25">
-        <v>22923918</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" t="s">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26">
         <v>0.0097</v>
@@ -10979,116 +11358,98 @@
         <v>0.009</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="O26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P26">
-        <v>31349983</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>95</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>21</v>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>0.0035</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" t="s">
         <v>24</v>
       </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
       <c r="P27">
-        <v>21415549</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" t="s">
-        <v>97</v>
-      </c>
-      <c r="S27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" t="s">
-        <v>31</v>
+        <v>170</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>21</v>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28">
         <v>0.0058</v>
@@ -11097,116 +11458,98 @@
         <v>0.0139</v>
       </c>
       <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
         <v>22</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
         <v>22</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" t="s">
         <v>24</v>
       </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
       <c r="P28">
-        <v>3683083</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>98</v>
-      </c>
-      <c r="R28" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" t="s">
-        <v>31</v>
+        <v>129</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
+      <c r="L29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
       <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P29">
-        <v>15439083</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>103</v>
-      </c>
-      <c r="R29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" t="s">
-        <v>104</v>
-      </c>
-      <c r="T29" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>0.562</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>9.752e-05</v>
@@ -11215,57 +11558,48 @@
         <v>0.0002</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="O30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P30">
-        <v>979269</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>107</v>
-      </c>
-      <c r="R30" t="s">
-        <v>36</v>
-      </c>
-      <c r="S30" t="s">
-        <v>37</v>
-      </c>
-      <c r="T30" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <v>0.0015</v>
@@ -11274,116 +11608,98 @@
         <v>0.0019</v>
       </c>
       <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" t="s">
-        <v>35</v>
-      </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="O31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P31">
-        <v>20005661</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>109</v>
-      </c>
-      <c r="R31" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>4.092e-06</v>
       </c>
       <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
         <v>22</v>
       </c>
-      <c r="I32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" t="s">
-        <v>35</v>
-      </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P32">
-        <v>26385103</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" t="s">
-        <v>36</v>
-      </c>
-      <c r="S32" t="s">
-        <v>30</v>
-      </c>
-      <c r="T32" t="s">
-        <v>31</v>
+        <v>165</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>0.0029</v>
@@ -11392,57 +11708,48 @@
         <v>0.0028</v>
       </c>
       <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
         <v>22</v>
       </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" t="s">
-        <v>35</v>
-      </c>
       <c r="L33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P33">
-        <v>24746056</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>112</v>
-      </c>
-      <c r="R33" t="s">
-        <v>36</v>
-      </c>
-      <c r="S33" t="s">
-        <v>37</v>
-      </c>
-      <c r="T33" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>72</v>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <v>0.0095</v>
@@ -11451,116 +11758,98 @@
         <v>0.0107</v>
       </c>
       <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s">
         <v>22</v>
       </c>
-      <c r="I34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34" t="s">
-        <v>35</v>
-      </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="O34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P34">
-        <v>17660468</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>113</v>
-      </c>
-      <c r="R34" t="s">
-        <v>29</v>
-      </c>
-      <c r="S34" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
         <v>4.414e-06</v>
       </c>
       <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
         <v>22</v>
       </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" t="s">
-        <v>35</v>
-      </c>
       <c r="L35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P35">
-        <v>11710580</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S35" t="s">
-        <v>29</v>
-      </c>
-      <c r="T35" t="s">
-        <v>31</v>
+        <v>124</v>
+      </c>
+      <c r="Q35">
+        <v>0.008</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>0.0003</v>
@@ -11569,57 +11858,48 @@
         <v>0.0036</v>
       </c>
       <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
         <v>22</v>
       </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" t="s">
-        <v>35</v>
-      </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="O36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P36">
-        <v>907758</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" t="s">
-        <v>36</v>
-      </c>
-      <c r="T36" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>0.136</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>72</v>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>0.0028</v>
@@ -11628,52 +11908,117 @@
         <v>0.0026</v>
       </c>
       <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
         <v>22</v>
       </c>
-      <c r="I37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" t="s">
-        <v>35</v>
-      </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="O37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P37">
-        <v>26671047</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" t="s">
-        <v>30</v>
-      </c>
-      <c r="S37" t="s">
-        <v>29</v>
-      </c>
-      <c r="T37" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z37"/>
+  <autoFilter ref="A1:AZ37"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="N5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="N6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="N7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="N8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="N9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="N10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="N11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="N12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="N13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="N14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="N15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="N16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="N17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="N18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="N19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="N20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="N21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="N22" r:id="rId42"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="N23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="N24" r:id="rId46"/>
+    <hyperlink ref="B25" r:id="rId47"/>
+    <hyperlink ref="N25" r:id="rId48"/>
+    <hyperlink ref="B26" r:id="rId49"/>
+    <hyperlink ref="N26" r:id="rId50"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="N27" r:id="rId52"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="N28" r:id="rId54"/>
+    <hyperlink ref="B29" r:id="rId55"/>
+    <hyperlink ref="N29" r:id="rId56"/>
+    <hyperlink ref="B30" r:id="rId57"/>
+    <hyperlink ref="N30" r:id="rId58"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="N31" r:id="rId60"/>
+    <hyperlink ref="B32" r:id="rId61"/>
+    <hyperlink ref="N32" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="N33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="N34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="N35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="N36" r:id="rId70"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="N37" r:id="rId72"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId73"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11682,7 +12027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11734,26 +12079,17 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:AZ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11762,7 +12098,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11813,95 +12149,6 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Z1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11912,7 +12159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11923,37 +12170,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -11963,7 +12225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11972,7 +12234,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12024,31 +12286,22 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>0.0023</v>
@@ -12057,170 +12310,255 @@
         <v>0.0021</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>54</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>6.46e-05</v>
+      </c>
+      <c r="G3">
+        <v>0.0002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>126</v>
+      </c>
+      <c r="Q3">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>0.0014</v>
+      </c>
+      <c r="G4">
+        <v>0.0018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>73</v>
+      </c>
+      <c r="Q4">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5">
+        <v>138</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>0.0097</v>
+      </c>
+      <c r="G6">
+        <v>0.009</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="P2">
-        <v>12061533</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3">
-        <v>3103018</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="N6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4">
-        <v>0.0097</v>
-      </c>
-      <c r="G4">
-        <v>0.009</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4">
-        <v>31349983</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z4"/>
+  <autoFilter ref="A1:AZ6"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="N5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="N6" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12229,7 +12567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12281,31 +12619,22 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>3.233e-05</v>
@@ -12314,57 +12643,48 @@
         <v>8.577e-06</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>9324321</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>0.0023</v>
@@ -12373,57 +12693,48 @@
         <v>0.0021</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P3">
-        <v>12061533</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>0.002</v>
@@ -12432,57 +12743,48 @@
         <v>0.0028</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P4">
-        <v>3746432</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
+        <v>103</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>0.0097</v>
@@ -12491,57 +12793,48 @@
         <v>0.009</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P5">
-        <v>31349983</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>9.752e-05</v>
@@ -12550,52 +12843,55 @@
         <v>0.0002</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P6">
-        <v>979269</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z6"/>
+  <autoFilter ref="A1:AZ6"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="N5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="N6" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12604,7 +12900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12656,18 +12952,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:AZ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -12675,7 +12962,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12684,7 +12971,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12736,18 +13023,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:AZ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -12755,7 +13033,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12764,7 +13042,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12816,18 +13094,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z2"/>
+  <autoFilter ref="A1:AZ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -12835,7 +13104,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12844,7 +13113,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12896,18 +13165,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:AZ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
